--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2879</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shoaib Malik</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>14/10/1999</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1600</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1601</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1603</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>19/10/1999</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1604</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1605</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1635</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1670</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>05/06/2000</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1692</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>09/07/2000</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1697</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1699</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1794</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>12/04/2001</t>
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1797</t>
+          <t>1797</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1798</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1208,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>15/04/2001</t>
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1799</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1801</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1806</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1852</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1411,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>28/10/2001</t>
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1853</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1458,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>02/11/2001</t>
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1856</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1505,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>25/01/2002</t>
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1879</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1893</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1895</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1920</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1929</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1950</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1954</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1955</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1957</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1959</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1960</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2016,7 +2072,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>21/09/2002</t>
@@ -2024,7 +2079,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1969</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2076,7 +2131,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2082</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2171,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>04/04/2003</t>
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2083</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2176,7 +2230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2087</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2216,7 +2270,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>10/04/2003</t>
@@ -2224,7 +2277,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2088</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2276,7 +2329,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2097</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2328,7 +2381,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2098</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2380,7 +2433,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2101</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2432,7 +2485,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2104</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2484,7 +2537,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2106</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2536,7 +2589,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2114</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2588,7 +2641,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2115</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2640,7 +2693,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2116</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2680,7 +2733,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>09/09/2003</t>
@@ -2688,7 +2740,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2130</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2740,7 +2792,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2131</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2792,7 +2844,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2132</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2844,7 +2896,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2133</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2896,7 +2948,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2134</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2948,7 +3000,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2135</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3000,7 +3052,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2136</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3052,7 +3104,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2137</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3104,7 +3156,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3156,7 +3208,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2139</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3208,7 +3260,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2159</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3260,7 +3312,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2161</t>
+          <t>2161</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3312,7 +3364,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2162</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3364,7 +3416,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2163</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3416,7 +3468,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2164</t>
+          <t>2164</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3468,7 +3520,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2165</t>
+          <t>2165</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3520,7 +3572,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2166</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3572,7 +3624,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2168</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3624,7 +3676,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2171</t>
+          <t>2171</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3676,7 +3728,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2173</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3728,7 +3780,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2204</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3780,7 +3832,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2206</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3832,7 +3884,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2207</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3884,7 +3936,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2208</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3936,7 +3988,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2209</t>
+          <t>2209</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3988,7 +4040,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2240</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4040,7 +4092,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2242</t>
+          <t>2242</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4092,7 +4144,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2245</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4144,7 +4196,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2247</t>
+          <t>2247</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4196,7 +4248,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2249</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4248,7 +4300,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2252</t>
+          <t>2252</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4300,7 +4352,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2258</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4352,7 +4404,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2262</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4404,7 +4456,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2270</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4456,7 +4508,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2275</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4508,7 +4560,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2277</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4560,7 +4612,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2279</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4612,7 +4664,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2280</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4664,7 +4716,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2281</t>
+          <t>2281</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4716,7 +4768,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2284</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4768,7 +4820,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2285</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4820,7 +4872,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2289</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4872,7 +4924,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2303</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4924,7 +4976,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2304</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4976,7 +5028,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2307</t>
+          <t>2307</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5028,7 +5080,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2311</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5080,7 +5132,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2313</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5132,7 +5184,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2316</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5184,7 +5236,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2318</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5236,7 +5288,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2320</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5288,7 +5340,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2333</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5340,7 +5392,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2334</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5392,7 +5444,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2335</t>
+          <t>2335</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5444,7 +5496,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2336</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5496,7 +5548,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2337</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5548,7 +5600,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2338</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5600,7 +5652,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2344</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5652,7 +5704,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2345</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5692,7 +5744,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>22/05/2005</t>
@@ -5700,7 +5751,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2346</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5752,7 +5803,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2403</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5792,7 +5843,6 @@
           <t>104</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>12/12/2005</t>
@@ -5800,7 +5850,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2404</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5852,7 +5902,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2405</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5904,7 +5954,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2406</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5956,7 +6006,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2407</t>
+          <t>2407</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6008,7 +6058,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2423</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6060,7 +6110,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2426</t>
+          <t>2426</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6112,7 +6162,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2428</t>
+          <t>2428</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6164,7 +6214,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2430</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6216,7 +6266,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2432</t>
+          <t>2432</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6268,7 +6318,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2451</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6320,7 +6370,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2452</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6372,7 +6422,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2454</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6424,7 +6474,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2464</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6476,7 +6526,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2465</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6528,7 +6578,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2489</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6580,7 +6630,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2511</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6632,7 +6682,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2512</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6684,7 +6734,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2513</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6736,7 +6786,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2514</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6788,7 +6838,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2535</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6840,7 +6890,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2540</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6892,7 +6942,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2542</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6944,7 +6994,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2566</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6996,7 +7046,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2569</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7048,7 +7098,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2570</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7100,7 +7150,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2572</t>
+          <t>2572</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7152,7 +7202,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2613</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7192,7 +7242,6 @@
           <t>131</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
           <t>07/02/2007</t>
@@ -7200,7 +7249,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2620</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7252,7 +7301,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2624</t>
+          <t>2624</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7304,7 +7353,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2628</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7356,7 +7405,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2630</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7408,7 +7457,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2638</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7460,7 +7509,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7512,7 +7561,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2654</t>
+          <t>2654</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7564,7 +7613,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2692</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7616,7 +7665,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2693</t>
+          <t>2693</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7668,7 +7717,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2694</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7720,7 +7769,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2744</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7772,7 +7821,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2746</t>
+          <t>2746</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7824,7 +7873,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2748</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7876,7 +7925,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2750</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7928,7 +7977,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2753</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7980,7 +8029,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2754</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8032,7 +8081,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2755</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8084,7 +8133,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2756</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8136,7 +8185,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2757</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8188,7 +8237,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2758</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8240,7 +8289,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2774</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8292,7 +8341,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2775</t>
+          <t>2775</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8344,7 +8393,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2777</t>
+          <t>2777</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8396,7 +8445,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2779</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8436,7 +8485,6 @@
           <t>155</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
           <t>02/02/2008</t>
@@ -8444,7 +8492,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2781</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8496,7 +8544,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2808</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8548,7 +8596,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2810</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8600,7 +8648,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2812</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8640,7 +8688,6 @@
           <t>159</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>16/04/2008</t>
@@ -8648,7 +8695,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2814</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8700,7 +8747,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8752,7 +8799,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2816</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8804,7 +8851,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2817</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8856,7 +8903,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2819</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8908,7 +8955,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2824</t>
+          <t>2824</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8960,7 +9007,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2829</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9012,7 +9059,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2835</t>
+          <t>2835</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9052,7 +9099,6 @@
           <t>167</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>04/07/2008</t>
@@ -9060,7 +9106,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2845</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9112,7 +9158,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2894</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9164,7 +9210,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2897</t>
+          <t>2897</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9216,7 +9262,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2898</t>
+          <t>2898</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9268,7 +9314,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2920</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9320,7 +9366,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2922</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9372,7 +9418,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2925</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9424,7 +9470,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2967</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9476,7 +9522,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2968</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9528,7 +9574,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2969</t>
+          <t>2969</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9580,7 +9626,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2970</t>
+          <t>2970</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9620,7 +9666,6 @@
           <t>178</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
           <t>03/05/2009</t>
@@ -9628,7 +9673,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2971</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9680,7 +9725,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2988</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9732,7 +9777,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2990</t>
+          <t>2990</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9784,7 +9829,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2991</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9836,7 +9881,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3021</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9888,7 +9933,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9940,7 +9985,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3030</t>
+          <t>3030</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9992,7 +10037,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3033</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10044,7 +10089,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3051</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10096,7 +10141,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10148,7 +10193,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3074</t>
+          <t>3074</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10200,7 +10245,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3075</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10252,7 +10297,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3078</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10304,7 +10349,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3122</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10356,7 +10401,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10408,7 +10453,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3324</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10448,7 +10493,6 @@
           <t>194</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
           <t>11/09/2011</t>
@@ -10456,7 +10500,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3326</t>
+          <t>3326</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10508,7 +10552,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3330</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10560,7 +10604,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10612,7 +10656,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10652,7 +10696,6 @@
           <t>198</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr">
         <is>
           <t>01/12/2011</t>
@@ -10660,7 +10703,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10712,7 +10755,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10764,7 +10807,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10804,7 +10847,6 @@
           <t>201</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
           <t>10/02/2012</t>
@@ -10812,7 +10854,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10864,7 +10906,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10916,7 +10958,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -10968,7 +11010,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11020,7 +11062,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11072,7 +11114,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11124,7 +11166,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3484</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11176,7 +11218,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3487</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11228,7 +11270,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3488</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11280,7 +11322,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3489</t>
+          <t>3489</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11332,7 +11374,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3491</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11384,7 +11426,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11436,7 +11478,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11488,7 +11530,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11540,7 +11582,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11592,7 +11634,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11644,7 +11686,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11696,7 +11738,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11748,7 +11790,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11800,7 +11842,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11852,7 +11894,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11904,7 +11946,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -11956,7 +11998,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12008,7 +12050,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12060,7 +12102,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12112,7 +12154,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12164,7 +12206,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12216,7 +12258,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12268,7 +12310,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12320,7 +12362,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12372,7 +12414,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12424,7 +12466,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12476,7 +12518,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12528,7 +12570,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12580,7 +12622,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12632,7 +12674,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12684,7 +12726,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12736,7 +12778,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -12788,7 +12830,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -12840,7 +12882,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12892,7 +12934,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -12944,7 +12986,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -12996,7 +13038,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -13048,7 +13090,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -13100,7 +13142,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -13152,7 +13194,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -13204,7 +13246,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -13256,7 +13298,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -13308,7 +13350,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -13360,7 +13402,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -13400,7 +13442,6 @@
           <t>251</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -13408,7 +13449,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -13460,7 +13501,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -13512,7 +13553,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -13564,7 +13605,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -13616,7 +13657,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -13668,7 +13709,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -13708,7 +13749,6 @@
           <t>257</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -13716,7 +13756,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -13768,7 +13808,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -13820,7 +13860,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -13872,7 +13912,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -13924,7 +13964,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -13976,7 +14016,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -14016,7 +14056,6 @@
           <t>263</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -14024,7 +14063,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -14064,7 +14103,6 @@
           <t>264</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr"/>
       <c r="C265" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -14072,7 +14110,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -14112,7 +14150,6 @@
           <t>265</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -14120,7 +14157,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -14172,7 +14209,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -14224,7 +14261,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -14276,7 +14313,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -14328,7 +14365,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -14380,7 +14417,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -14432,7 +14469,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -14484,7 +14521,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -14536,7 +14573,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -14588,7 +14625,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -14640,7 +14677,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -14692,7 +14729,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -14744,7 +14781,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -14784,7 +14821,6 @@
           <t>278</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -14792,7 +14828,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -14844,7 +14880,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -14896,7 +14932,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -14948,7 +14984,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -15000,7 +15036,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -15052,7 +15088,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -15104,7 +15140,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -15156,7 +15192,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -15208,7 +15244,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -15260,7 +15296,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -15299,7 +15335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15321,7 +15357,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -15358,7 +15394,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1600</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15395,7 +15431,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1601</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -15432,7 +15468,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1603</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -15469,7 +15505,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1604</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -15506,7 +15542,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1605</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -15543,7 +15579,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1635</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -15580,7 +15616,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1670</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -15617,7 +15653,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1692</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -15654,7 +15690,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1697</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -15691,7 +15727,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1699</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -15728,7 +15764,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1794</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -15765,7 +15801,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1797</t>
+          <t>1797</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -15802,7 +15838,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1798</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -15839,7 +15875,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1799</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -15876,7 +15912,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1801</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -15913,7 +15949,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1806</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -15950,7 +15986,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1852</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -15987,7 +16023,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1853</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16024,7 +16060,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1856</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -16061,7 +16097,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1879</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -16098,7 +16134,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1893</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -16135,7 +16171,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1895</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -16172,7 +16208,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1920</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -16209,7 +16245,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1929</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -16246,7 +16282,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1950</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -16283,7 +16319,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1954</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -16320,7 +16356,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1960</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -16357,7 +16393,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1969</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -16394,7 +16430,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2082</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -16431,7 +16467,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2083</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -16468,7 +16504,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2087</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -16505,7 +16541,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2088</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -16542,7 +16578,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2097</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -16579,7 +16615,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2101</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -16616,7 +16652,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2104</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -16653,7 +16689,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2106</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -16690,7 +16726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2114</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -16727,7 +16763,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2116</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -16764,7 +16800,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2130</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -16801,7 +16837,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2131</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -16838,7 +16874,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2132</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -16875,7 +16911,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2133</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -16912,7 +16948,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2134</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -16949,7 +16985,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2135</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -16986,7 +17022,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2136</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -17023,7 +17059,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2137</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -17060,7 +17096,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -17097,7 +17133,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2139</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -17134,7 +17170,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2159</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -17171,7 +17207,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2161</t>
+          <t>2161</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -17208,7 +17244,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2162</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -17245,7 +17281,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2163</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -17282,7 +17318,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2164</t>
+          <t>2164</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -17319,7 +17355,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2165</t>
+          <t>2165</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -17356,7 +17392,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2166</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -17393,7 +17429,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2168</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -17430,7 +17466,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2171</t>
+          <t>2171</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -17467,7 +17503,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2173</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -17504,7 +17540,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2204</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -17541,7 +17577,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2206</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -17578,7 +17614,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2207</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -17615,7 +17651,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2208</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -17652,7 +17688,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2209</t>
+          <t>2209</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -17689,7 +17725,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2240</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -17726,7 +17762,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2242</t>
+          <t>2242</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -17763,7 +17799,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2245</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -17800,7 +17836,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2247</t>
+          <t>2247</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -17837,7 +17873,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2249</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -17874,7 +17910,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2252</t>
+          <t>2252</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -17911,7 +17947,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2258</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -17948,7 +17984,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2262</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -17985,7 +18021,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2270</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -18022,7 +18058,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2275</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -18059,7 +18095,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2277</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -18096,7 +18132,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2279</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -18133,7 +18169,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2280</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -18170,7 +18206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2281</t>
+          <t>2281</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -18207,7 +18243,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2284</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -18244,7 +18280,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2285</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -18281,7 +18317,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2289</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -18318,7 +18354,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2335</t>
+          <t>2335</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -18355,7 +18391,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2336</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -18392,7 +18428,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2337</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -18429,7 +18465,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2338</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -18466,7 +18502,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2344</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -18503,7 +18539,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2345</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -18540,7 +18576,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2346</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -18577,7 +18613,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2403</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18614,7 +18650,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2404</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18651,7 +18687,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2405</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18688,7 +18724,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2406</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18725,7 +18761,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2407</t>
+          <t>2407</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18762,7 +18798,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2423</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18799,7 +18835,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2426</t>
+          <t>2426</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -18836,7 +18872,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2432</t>
+          <t>2432</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -18873,7 +18909,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2452</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -18910,7 +18946,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2454</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -18947,7 +18983,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2464</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -18984,7 +19020,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2465</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -19021,7 +19057,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2489</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -19058,7 +19094,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2513</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -19095,7 +19131,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2514</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -19132,7 +19168,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2535</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -19169,7 +19205,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2540</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -19206,7 +19242,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2542</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -19243,7 +19279,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2569</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -19280,7 +19316,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2570</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -19317,7 +19353,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2613</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -19354,7 +19390,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2620</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -19391,7 +19427,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2630</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -19428,7 +19464,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2638</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -19465,7 +19501,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -19502,7 +19538,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2693</t>
+          <t>2693</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -19539,7 +19575,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2744</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -19576,7 +19612,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2748</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -19613,7 +19649,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2753</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -19650,7 +19686,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2754</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -19687,7 +19723,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2755</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -19724,7 +19760,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2756</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -19761,7 +19797,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2758</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -19798,7 +19834,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2774</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -19835,7 +19871,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2775</t>
+          <t>2775</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -19872,7 +19908,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2777</t>
+          <t>2777</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -19909,7 +19945,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2779</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -19946,7 +19982,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2781</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -19983,7 +20019,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2808</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -20020,7 +20056,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2810</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -20057,7 +20093,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2812</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -20094,7 +20130,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2814</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -20131,7 +20167,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -20168,7 +20204,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2819</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -20205,7 +20241,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2824</t>
+          <t>2824</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -20242,7 +20278,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2835</t>
+          <t>2835</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -20279,7 +20315,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2845</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -20316,7 +20352,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2894</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -20353,7 +20389,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2897</t>
+          <t>2897</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -20390,7 +20426,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2898</t>
+          <t>2898</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -20427,7 +20463,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2920</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -20464,7 +20500,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2922</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -20501,7 +20537,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2925</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -20538,7 +20574,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2967</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -20575,7 +20611,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2968</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -20612,7 +20648,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2969</t>
+          <t>2969</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -20649,7 +20685,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2970</t>
+          <t>2970</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -20686,7 +20722,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2971</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -20723,7 +20759,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2990</t>
+          <t>2990</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -20760,7 +20796,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2991</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -20797,7 +20833,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -20834,7 +20870,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3030</t>
+          <t>3030</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -20871,7 +20907,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3033</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -20908,7 +20944,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -20945,7 +20981,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3075</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -20982,7 +21018,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3078</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -21019,7 +21055,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3122</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -21056,7 +21092,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -21093,7 +21129,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3324</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -21130,7 +21166,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3330</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -21167,7 +21203,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -21204,7 +21240,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -21241,7 +21277,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -21278,7 +21314,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -21315,7 +21351,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -21352,7 +21388,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -21389,7 +21425,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -21426,7 +21462,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -21463,7 +21499,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -21500,7 +21536,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3484</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -21537,7 +21573,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -21574,7 +21610,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -21611,7 +21647,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -21648,7 +21684,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -21685,7 +21721,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -21722,7 +21758,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -21759,7 +21795,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -21796,7 +21832,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -21833,7 +21869,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -21870,7 +21906,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -21907,7 +21943,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -21944,7 +21980,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -21981,7 +22017,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -22018,7 +22054,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -22055,7 +22091,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -22092,7 +22128,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -22129,7 +22165,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -22166,7 +22202,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -22203,7 +22239,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -22240,7 +22276,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -22277,7 +22313,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -22314,7 +22350,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -22351,7 +22387,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22388,7 +22424,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22425,7 +22461,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22462,7 +22498,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22499,7 +22535,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22536,7 +22572,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22573,7 +22609,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22610,7 +22646,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -22647,7 +22683,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -22684,7 +22720,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -22721,7 +22757,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -22758,7 +22794,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -22795,7 +22831,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -22832,7 +22868,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -22869,7 +22905,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -22906,7 +22942,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -22943,7 +22979,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -22980,7 +23016,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -23017,7 +23053,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -23054,7 +23090,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -23091,7 +23127,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -23128,7 +23164,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -23165,7 +23201,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -23202,7 +23238,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -23239,7 +23275,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -23276,7 +23312,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -23313,7 +23349,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -23350,7 +23386,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -23376,6 +23412,581 @@
       <c r="G218" t="inlineStr">
         <is>
           <t>0/11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.54%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19.77%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.91%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14.85%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13.70%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.49%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.78%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.06%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23622,10 +23623,6 @@
           <t>4225</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23638,10 +23635,6 @@
           <t>4227</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23747,9 +23740,6 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23762,10 +23752,6 @@
           <t>4247</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23928,15 +23914,335 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4079</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4081</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4172</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -23944,25 +24250,12 @@
           <t>4319</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23970,25 +24263,12 @@
           <t>4324</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23623,6 +23622,10 @@
           <t>4225</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23635,6 +23638,10 @@
           <t>4227</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23740,6 +23747,9 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23752,6 +23762,10 @@
           <t>4247</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23914,6 +23928,10 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23939,6 +23957,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23964,311 +23983,12 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4017</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4034</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4079</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4081</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4105</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4172</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4174</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4177</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4178</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4194</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4197</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4204</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_2879.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>14/10/1999</t>
@@ -708,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>19/10/1999</t>
@@ -911,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>05/06/2000</t>
@@ -958,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>09/07/2000</t>
@@ -1109,6 +1112,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>12/04/2001</t>
@@ -1208,6 +1212,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>15/04/2001</t>
@@ -1411,6 +1416,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>28/10/2001</t>
@@ -1458,6 +1464,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>02/11/2001</t>
@@ -1505,6 +1512,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>25/01/2002</t>
@@ -2072,6 +2080,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>21/09/2002</t>
@@ -2171,6 +2180,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>04/04/2003</t>
@@ -2270,6 +2280,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>10/04/2003</t>
@@ -2733,6 +2744,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>09/09/2003</t>
@@ -5744,6 +5756,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>22/05/2005</t>
@@ -5843,6 +5856,7 @@
           <t>104</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>12/12/2005</t>
@@ -7242,6 +7256,7 @@
           <t>131</t>
         </is>
       </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
           <t>07/02/2007</t>
@@ -8485,6 +8500,7 @@
           <t>155</t>
         </is>
       </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
           <t>02/02/2008</t>
@@ -8688,6 +8704,7 @@
           <t>159</t>
         </is>
       </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>16/04/2008</t>
@@ -9099,6 +9116,7 @@
           <t>167</t>
         </is>
       </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>04/07/2008</t>
@@ -9666,6 +9684,7 @@
           <t>178</t>
         </is>
       </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
           <t>03/05/2009</t>
@@ -10493,6 +10512,7 @@
           <t>194</t>
         </is>
       </c>
+      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
           <t>11/09/2011</t>
@@ -10696,6 +10716,7 @@
           <t>198</t>
         </is>
       </c>
+      <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr">
         <is>
           <t>01/12/2011</t>
@@ -10847,6 +10868,7 @@
           <t>201</t>
         </is>
       </c>
+      <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
           <t>10/02/2012</t>
@@ -13442,6 +13464,7 @@
           <t>251</t>
         </is>
       </c>
+      <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -13749,6 +13772,7 @@
           <t>257</t>
         </is>
       </c>
+      <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -14056,6 +14080,7 @@
           <t>263</t>
         </is>
       </c>
+      <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -14103,6 +14128,7 @@
           <t>264</t>
         </is>
       </c>
+      <c r="B265" t="inlineStr"/>
       <c r="C265" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -14150,6 +14176,7 @@
           <t>265</t>
         </is>
       </c>
+      <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -14821,6 +14848,7 @@
           <t>278</t>
         </is>
       </c>
+      <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -23418,579 +23446,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4197</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.54%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>19.77%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>32.91%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4204</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14.85%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4223</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13.70%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.49%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10.34%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.78%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.93%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.13%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>12.06%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.35%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>